--- a/_build/utils/dm-dependencies/resources/attribution_source.xlsx
+++ b/_build/utils/dm-dependencies/resources/attribution_source.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5707EFC0-6C7A-43CC-A6D8-7931A4A4A4EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55363070-C634-4D71-B99A-0D8D67231EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="A313" authorId="0" shapeId="0" xr:uid="{81A0826D-85C5-42D4-A80E-F3D93B18E757}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+GUM11</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1816">
   <si>
     <t>ID</t>
   </si>
@@ -11977,6 +12001,921 @@
   </si>
   <si>
     <t>GUM_court_carpet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If it cannot do so now, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Petitioner submits, he is entitled to release. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_court_insanity</t>
+  </si>
+  <si>
+    <t>43-42</t>
+  </si>
+  <si>
+    <t>(368, 370)</t>
+  </si>
+  <si>
+    <t>(360, 367)</t>
+  </si>
+  <si>
+    <t>Petitioner submits ,</t>
+  </si>
+  <si>
+    <t>(368, 376)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I take it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this is a motion to strike. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_court_negligence</t>
+  </si>
+  <si>
+    <t>(657, 659)</t>
+  </si>
+  <si>
+    <t>(660, 666)</t>
+  </si>
+  <si>
+    <t>I take it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I believe that discussion will make clear </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the interest here is possession of personal property and that process due is not a contested case under Chapter 91. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_court_property</t>
+  </si>
+  <si>
+    <t>(328, 332)</t>
+  </si>
+  <si>
+    <t>(333, 354)</t>
+  </si>
+  <si>
+    <t>that discussion will make clear</t>
+  </si>
+  <si>
+    <t>(326, 332)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And the case law makes it clear </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that there is no such claim of entitlement. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(667, 673)</t>
+  </si>
+  <si>
+    <t>(674, 682)</t>
+  </si>
+  <si>
+    <t>And the case law makes it clear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And there are many, many other case law citations that support </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that there is not a due process right to maintain property on public property, even if there is a due process right in possession of the property itself. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(758, 759)</t>
+  </si>
+  <si>
+    <t>(760, 789)</t>
+  </si>
+  <si>
+    <t>that support</t>
+  </si>
+  <si>
+    <t>(748, 759)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I mean, there`s a conced---I thought I heard you concede </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that the the chattels are personal property is property for due process analysis. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(865, 878)</t>
+  </si>
+  <si>
+    <t>you concede</t>
+  </si>
+  <si>
+    <t>(851, 864)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Because if you are going to separate property right in the race itself from the location of it, then I`m not clear </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on whether any of the cases cited actually draws that distinction. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(1173, 1177)</t>
+  </si>
+  <si>
+    <t>(1178, 1189)</t>
+  </si>
+  <si>
+    <t>then I &amp;apos;m not clear</t>
+  </si>
+  <si>
+    <t>(1154, 1177)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I`m conceding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that there may be a due process violation based upon the failure to provide those specific procedures. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(1447, 1449)</t>
+  </si>
+  <si>
+    <t>(1450, 1467)</t>
+  </si>
+  <si>
+    <t>I &amp;apos;m conceding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Think </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I paid thirty dollars for it. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_conversation_artist</t>
+  </si>
+  <si>
+    <t>(627, 627)</t>
+  </si>
+  <si>
+    <t>(628, 634)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am enjoying the idea of watching people at huge companies who build LLMs dancing in between saying, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> `` yeah, we used all this copyrighted information `` [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_podcast_llms</t>
+  </si>
+  <si>
+    <t>(846, 855)</t>
+  </si>
+  <si>
+    <t>in between saying ,</t>
+  </si>
+  <si>
+    <t>(827, 845)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I am enjoying the idea of watching people at huge companies who build LLMs dancing in between saying, `` yeah, we used all this copyrighted information `` and getting beaten to death by Disney or saying, `` </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we`re not prepared to declare where we got this information `` [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(863, 866)</t>
+  </si>
+  <si>
+    <t>(867, 878)</t>
+  </si>
+  <si>
+    <t>or saying , &amp;quot;</t>
+  </si>
+  <si>
+    <t>(827, 866)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They wouldn`t like to say </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> they agree [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>159-160</t>
+  </si>
+  <si>
+    <t>(1096, 1101)</t>
+  </si>
+  <si>
+    <t>(1102, 1103)</t>
+  </si>
+  <si>
+    <t>They would n&amp;apos;t like to say</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By that Heaven that bends above us — by that God we both adore — Tell this soul with sorrow laden </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if, within the distant Aidenn, It shall clasp a sainted maiden whom the angels name Lenore — Clasp a rare and radiant maiden whom the angels name Lenore.` [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GENTLE_poetry_raven</t>
+  </si>
+  <si>
+    <t>(1150, 1170)</t>
+  </si>
+  <si>
+    <t>(1171, 1202)</t>
+  </si>
+  <si>
+    <t>By that Heaven</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The document, which media reports </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> range from ten to 32 pages with 40 to 50 questions, [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_news_questionnaire</t>
+  </si>
+  <si>
+    <t>(175, 177)</t>
+  </si>
+  <si>
+    <t>(178, 189)</t>
+  </si>
+  <si>
+    <t>which media reports</t>
+  </si>
+  <si>
+    <t>(172, 177)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Labour`s Shadow Home Secretary Yvette Cooper said her party has supported the idea `` for months ``, and said </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it was `` damning that the Home Office isn`t doing this already [...] including for safe countries like Albania `` after the United Nations High Commissioner for Refugees `` recommended it two years ago . `` [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(371, 372)</t>
+  </si>
+  <si>
+    <t>(373, 411)</t>
+  </si>
+  <si>
+    <t>and said</t>
+  </si>
+  <si>
+    <t>(352, 372)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She continued: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> `` Labour has a common - sense plan to fast - track cases, get return agreements in place so unsuccessful claims can be quickly and safely returned, and take much stronger action against the criminal gangs driving dangerous small boat crossings . `` [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(412, 414)</t>
+  </si>
+  <si>
+    <t>(415, 459)</t>
+  </si>
+  <si>
+    <t>She continued :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Braverman (left) and Sunak (right) on October 25, 2022 . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Image: UK Government. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(37, 41)</t>
+  </si>
+  <si>
+    <t>(22, 36)</t>
+  </si>
+  <si>
+    <t>UK Government .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Border Force vessel HMC Searcher on The Solent on February 8, 2010 . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Image: Brian Burnell. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(57, 61)</t>
+  </si>
+  <si>
+    <t>(42, 56)</t>
+  </si>
+  <si>
+    <t>Brian Burnell .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Braverman with France`s interior and overseas minister Gérald Darmanin in Paris on November 14, 2022 . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Image: Home Office. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(573, 577)</t>
+  </si>
+  <si>
+    <t>(555, 572)</t>
+  </si>
+  <si>
+    <t>Home Office .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Michel advised her on May 25th as follows: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> `` There is a grave legal question involved as to whether or not these letters are the property of your mother`s estate and an appropriate legal action is contemplated to determine such question . `` [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_letter_attorney</t>
+  </si>
+  <si>
+    <t>(63, 71)</t>
+  </si>
+  <si>
+    <t>(72, 107)</t>
+  </si>
+  <si>
+    <t>Michel advised her on May 25th as follows :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear John; Thank you for your call of this afternoon . It was a surprise for us to learn that apparently a decision was reached, perhaps by the judge that the letters are the property of Isabelle . Michel advised her on May 25th as follows: `` There is a grave legal question involved as to whether or not these letters are the property of your mother`s estate and an appropriate legal action is contemplated to determine such question . `` It is our considered opinion: Williamson should have sent them to the owner`s daughter as a very personal matter or auctioned them off when he sold Mrs. Phillips`s things on the auction block . He did neither . He sat on them `til some reporter`s warned him that they were hot merchandise . Then with the idea of seeking cover made a judge (apparently ignorant of the law) appoint an administrator for Mrs. Phillips`s estate for stolen merchandise held in posession of a court appointed guardian of Mrs. Phillips . To cap it all he permitted publication of these stolen letters by the press, although they were ordered by him to be under lock and key . Now it appears that Williamson is trying to defend himself to the public . A reporter from the Cleveland Press phoned on Monday last . He said that he wanted to check on a statement made by Williamson, since he claimed that while he was Mrs. P`s guardian he had never heard from Isabelle . We said; `` No comment `` . Isabelle was not advised that her mother had a guardian . On Dec. 6th 1954 she had a power of attorney duly executed and witnessed by our attorney in Recine, Wis. in favor of Maud Gorham of Marion, Ohio especially to deal in all matters pertaining to Carrie Fulton Phillips . We have not seen the Press article of this week, nor one the Marion Star or any Columbus paper might have had, covering an interview with Williamson . If he does not leave Isabelle out of all of this he will have to suffer the consequences . Perhaps you can warn him for me . We will brand him with a libel iron, he won`t forget . The mental and heart suffering caused by this S.O.B to Isabelle is very deep, I can assure you, John . She is sick &amp; in doctor`s continual observation and care . If there are no live debts to be satisfied and if the only assets in the reopened estate administrated by Michel are these stolen letters, now apparently determined to be the property of Isabelle, why on that decision alone, cannot these letters be surrendered and the estate be closed because of lack of assets . In that event, if you can succeed in getting that done, we would like to have the letters surrendered to you for destruction or surrender to the Harding family, as a possible value in checking the accuracy of any published stuff in the future . If the Court insists on these letters being an asset and refuses to close the estate and insists that they be appraised and sold by the administrator at highest value offered, we would want to be sure that the sales price received covers the expenditures and that any trans-action in connection with such a sale remain entirely free from press and publication abuse . John, as to the question of appraisers . In our business of antiques, that of antiquarians, we have and must have in certain states, licensed appraisers . All of them own their own respective businesses and sell . Among them is Ralph Newman, who is also a historian . Then of course there seem to be in this picture, so called historians, like the man you mentioned over the phone, Ed. K. Gross etc. We even had inquiries from the Wisconsin State College, D. F. Costello, Prof. A historian from Minneapolis wrote: would we sell the letters? These kind of historians want something for nothing and could not appraise anything of this kind, since they do not know corresponding values . But all would want to take a look and see . John, Isabelle does not want to sell the letters unless we are forced to do so by the judge and his court under the auspices of estate jurisdiction . She has never seen them, knew nothing of their existence and does not care to see them now or ever . There are to ways out: 1) according to Paragraph 1 &amp; 2 of this page and the preceeding paragraph, as we see it . In the first instance we would want to pay you your bill on conclusion or before as you like . In the second instance we wonder if you might take for a third of the net or how you would like to be compensated . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In the meanrime with all best regards from the both of us, Sincerely, [William Helmuth Mathée] [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>(895, 914)</t>
+  </si>
+  <si>
+    <t>(23, 894)</t>
+  </si>
+  <si>
+    <t>[ William Helmuth Mathée ]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As Emily Yoshida so aptly put it in their Beginner ’s Guide to the Ghost in the Shell Universe, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ghost is a “ meditation on consciousness and the philosophy of the self ”. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_essay_ghost</t>
+  </si>
+  <si>
+    <t>(501, 520)</t>
+  </si>
+  <si>
+    <t>(521, 535)</t>
+  </si>
+  <si>
+    <t>As Emily Yoshida so aptly put it in their Beginner ’s Guide to the Ghost in the Shell Universe ,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Um, I ’m gonna say this right now, and I ’m gonna say it again when we get to the match – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I ’m glad it ’s over. [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_podcast_wrestling</t>
+  </si>
+  <si>
+    <t>(239, 264)</t>
+  </si>
+  <si>
+    <t>(265, 271)</t>
+  </si>
+  <si>
+    <t>Um , I ’m gon na say this right now ,</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dear Katherine: I`m not taking time for a real letter, but am venturing to send back by Roy Stinebower copies of two carbons of letters to my father . After a rather leisurely start, the conference has got well under way with a hurry, and everybody is keeping busy . Lionel and Bert and I all have lots to do . He is specializing more or less on Trieste, whil Bert and I cover pretty much everything else . Have been thinking of all of you people in LE, and want to be remembered to my friends . Will try to write a real letter before long . The Conference seems much busier now than it was a couple of weeks ago; after doing nothing for so long a time, they are getting down to work in the several commissions . In addition to the regularly scheduled commissions, there are also some meetings going on of the four Drafting Powers, in an effort to avoid long delays (especially after the completion of the Paris Conference itself). While I`ve been pretty busy, there has still been occasional time I could get off for one thing or another . Last night several of us went to l` Opera to hear the Flying Dutchman, or Vaisseau Phantome, as it is called here . Although none of the singers were particularly well - known, at least to me, the performance was good . I thought the stage setting particularly well done, with the one boat on the stage in the foreground and the other shown on a screen by shadow; the ghost ship made its proper disappearance, etc., in silhouette . The house was filled, but not with the same sort of audience as had attended the ballet in honor of the opening of the conference last July . On several occasions last week I had lunch at the Luxembourg between m etings, and then was able to walk back in the latter part of the afternoon . The meals served in a special restaurant for the delegates are good, and there is sometimes rather interesting company . On Thurday Bert and I ate there with M. Shaganon, the secretary of the Legal and Drafting Commission, and found it a good opportunity to practice French, for he is one of the few around who does not insist on speaking English . Friday morning there was scheduled a meeting of a subcommission to draft the exact description of the French - Italian frontier in places where Italy makes smsll grants to France . Thursday evening Bert and I went over the description with Otto Guthe, our geographer, on a series of maps at abaut 3 inches to a mile, rather interesting in mountain country . Then on Friday the meeting was not held, after all, so we walked back from the Luxembourg . As it had turned off a sunny morning, we detoured somewhat, and visited the old church of St. Severin on the left bank, and then the little church of St. Julien le Pauvre, just across the river from Notre Dame and used by the students and faculties as the University Church back in the twelfth to sixteenth centuries . We looked around in Notre Dame a while, getting good light on he stained glass windows, and also revisited the Sainte Chapelle . All of the thirteenth century staind glass windows on the south side are now back in, and they are replacing those on the north side (removed, of course, for safety at the start of the war). Altho it is not yet a magnificent in appearance as with all the glass in, the windows are beautiful with their blues and purple and red . Friday was Jack Reinstein`s birthday, and a large number of the delegation celebrated it with a cocktail party . I don`t know about the quality of the drinks, but the sandwiches and nuts prepared by some from the PX supplies went very well . Several of us had enough in the way of sandwiches so that we did not want a regular dinner afterwards, and therefore finished off at the PX Sugarbowl with American milkshakes and sundaes . It is rather interesting how one gets to depend on the various army facilities like the PX for its weekly supplies and the Sugarbowl as almost the only source of milk products (the French `` glaces `` being very obviously water ices rather than icecreams). The weather has been better the last few days, though it usually rains at least once a day . On Thursday morning we had a 9 A.M. meeting at the Luxembourg, and ev yyone going over in the car spoke of how it seemed like the start of school in the fall, with a hazy Indian summer type of sunshine, and temperatures around 60 . Today is partly clear, and I hope I may be able to get out somewhere after the meeting which begins at 11 and will r until about 2 . I have gone over for one meeting this morning, and found it cancelled . </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>||</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Best wishes, Bill [..]</t>
+    </r>
+  </si>
+  <si>
+    <t>GUM_letter_conference</t>
+  </si>
+  <si>
+    <t>(921, 924)</t>
+  </si>
+  <si>
+    <t>(5, 920)</t>
+  </si>
+  <si>
+    <t>Petitioner</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>Michel</t>
+  </si>
+  <si>
+    <t>that discussion</t>
+  </si>
+  <si>
+    <t>the case law</t>
+  </si>
+  <si>
+    <t>people at huge companies who build LLMs</t>
+  </si>
+  <si>
+    <t>the Raven</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>Labour 's Shadow Home Secretary Yvette Cooper</t>
+  </si>
+  <si>
+    <t>UK Government</t>
+  </si>
+  <si>
+    <t>Brian Burnell</t>
+  </si>
+  <si>
+    <t>Home Office</t>
+  </si>
+  <si>
+    <t>William Helmuth Mathée</t>
+  </si>
+  <si>
+    <t>Emily Yoshida</t>
+  </si>
+  <si>
+    <t>many , many other case law citations</t>
   </si>
 </sst>
 </file>
@@ -12455,17 +13394,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P312"/>
+  <dimension ref="A1:P336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.3125" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
     <col min="3" max="3" width="91" customWidth="1"/>
-    <col min="6" max="6" width="30.3125" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75" customHeight="1">
@@ -27446,6 +28385,1158 @@
       </c>
       <c r="P312" s="3" t="s">
         <v>1685</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A313" s="5">
+        <v>316</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G313" s="3">
+        <v>43</v>
+      </c>
+      <c r="H313" s="3">
+        <v>42</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="M313" s="3"/>
+      <c r="N313" s="3">
+        <v>1</v>
+      </c>
+      <c r="O313" s="3">
+        <v>42</v>
+      </c>
+      <c r="P313" s="3" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A314" s="5">
+        <v>317</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G314" s="3">
+        <v>72</v>
+      </c>
+      <c r="H314" s="3">
+        <v>73</v>
+      </c>
+      <c r="I314" s="3">
+        <v>72</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="M314" s="3"/>
+      <c r="N314" s="3">
+        <v>1</v>
+      </c>
+      <c r="O314" s="3">
+        <v>189</v>
+      </c>
+      <c r="P314" s="3" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A315" s="3">
+        <v>318</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G315" s="3">
+        <v>41</v>
+      </c>
+      <c r="H315" s="3">
+        <v>42</v>
+      </c>
+      <c r="I315" s="3">
+        <v>41</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M315" s="3"/>
+      <c r="N315" s="3">
+        <v>1</v>
+      </c>
+      <c r="O315" s="3">
+        <v>266</v>
+      </c>
+      <c r="P315" s="3" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A316" s="5">
+        <v>319</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G316" s="3">
+        <v>88</v>
+      </c>
+      <c r="H316" s="3">
+        <v>89</v>
+      </c>
+      <c r="I316" s="3">
+        <v>88</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="M316" s="3"/>
+      <c r="N316" s="3">
+        <v>1</v>
+      </c>
+      <c r="O316" s="3">
+        <v>89</v>
+      </c>
+      <c r="P316" s="3" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A317" s="5">
+        <v>320</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G317" s="3">
+        <v>97</v>
+      </c>
+      <c r="H317" s="3">
+        <v>98</v>
+      </c>
+      <c r="I317" s="3">
+        <v>97</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="M317" s="3"/>
+      <c r="N317" s="3">
+        <v>1</v>
+      </c>
+      <c r="O317" s="3">
+        <v>315</v>
+      </c>
+      <c r="P317" s="3" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A318" s="3">
+        <v>321</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G318" s="3">
+        <v>112</v>
+      </c>
+      <c r="H318" s="3">
+        <v>113</v>
+      </c>
+      <c r="I318" s="3">
+        <v>112</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3">
+        <v>1</v>
+      </c>
+      <c r="O318" s="3">
+        <v>327</v>
+      </c>
+      <c r="P318" s="3" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A319" s="5">
+        <v>322</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G319" s="3">
+        <v>155</v>
+      </c>
+      <c r="H319" s="3">
+        <v>156</v>
+      </c>
+      <c r="I319" s="3">
+        <v>155</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="M319" s="3"/>
+      <c r="N319" s="3">
+        <v>1</v>
+      </c>
+      <c r="O319" s="3">
+        <v>371</v>
+      </c>
+      <c r="P319" s="3" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A320" s="5">
+        <v>323</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G320" s="3">
+        <v>201</v>
+      </c>
+      <c r="H320" s="3">
+        <v>202</v>
+      </c>
+      <c r="I320" s="3">
+        <v>201</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>1725</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="M320" s="3"/>
+      <c r="N320" s="3">
+        <v>1</v>
+      </c>
+      <c r="O320" s="3">
+        <v>417</v>
+      </c>
+      <c r="P320" s="3" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A321" s="3">
+        <v>324</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="G321" s="3">
+        <v>93</v>
+      </c>
+      <c r="H321" s="3">
+        <v>94</v>
+      </c>
+      <c r="I321" s="3">
+        <v>93</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3">
+        <v>1</v>
+      </c>
+      <c r="O321" s="3">
+        <v>94</v>
+      </c>
+      <c r="P321" s="3" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A322" s="5">
+        <v>325</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G322" s="3">
+        <v>117</v>
+      </c>
+      <c r="H322" s="3">
+        <v>118</v>
+      </c>
+      <c r="I322" s="3">
+        <v>117</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="M322" s="3"/>
+      <c r="N322" s="3">
+        <v>1</v>
+      </c>
+      <c r="O322" s="3">
+        <v>118</v>
+      </c>
+      <c r="P322" s="3" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A323" s="5">
+        <v>326</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G323" s="3">
+        <v>120</v>
+      </c>
+      <c r="H323" s="3">
+        <v>121</v>
+      </c>
+      <c r="I323" s="3">
+        <v>120</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3">
+        <v>1</v>
+      </c>
+      <c r="O323" s="3">
+        <v>121</v>
+      </c>
+      <c r="P323" s="3" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A324" s="3">
+        <v>327</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G324" s="3">
+        <v>159</v>
+      </c>
+      <c r="H324" s="3">
+        <v>160</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3">
+        <v>1</v>
+      </c>
+      <c r="O324" s="3">
+        <v>160</v>
+      </c>
+      <c r="P324" s="3" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A325" s="5">
+        <v>328</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G325" s="3">
+        <v>172</v>
+      </c>
+      <c r="H325" s="3">
+        <v>178</v>
+      </c>
+      <c r="I325" s="3">
+        <v>357</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="M325" s="3"/>
+      <c r="N325" s="3">
+        <v>1</v>
+      </c>
+      <c r="O325" s="3">
+        <v>361</v>
+      </c>
+      <c r="P325" s="3" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A326" s="5">
+        <v>329</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G326" s="3">
+        <v>24</v>
+      </c>
+      <c r="H326" s="3">
+        <v>25</v>
+      </c>
+      <c r="I326" s="3">
+        <v>24</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3">
+        <v>1</v>
+      </c>
+      <c r="O326" s="3">
+        <v>25</v>
+      </c>
+      <c r="P326" s="3" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A327" s="3">
+        <v>330</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G327" s="3">
+        <v>51</v>
+      </c>
+      <c r="H327" s="3">
+        <v>52</v>
+      </c>
+      <c r="I327" s="3">
+        <v>51</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3">
+        <v>1</v>
+      </c>
+      <c r="O327" s="3">
+        <v>176</v>
+      </c>
+      <c r="P327" s="3" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A328" s="5">
+        <v>331</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G328" s="3">
+        <v>55</v>
+      </c>
+      <c r="H328" s="3">
+        <v>56</v>
+      </c>
+      <c r="I328" s="3">
+        <v>55</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3">
+        <v>1</v>
+      </c>
+      <c r="O328" s="3">
+        <v>179</v>
+      </c>
+      <c r="P328" s="3" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A329" s="5">
+        <v>332</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G329" s="3">
+        <v>10</v>
+      </c>
+      <c r="H329" s="3">
+        <v>4</v>
+      </c>
+      <c r="I329" s="3">
+        <v>137</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3">
+        <v>1</v>
+      </c>
+      <c r="O329" s="3">
+        <v>135</v>
+      </c>
+      <c r="P329" s="3" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A330" s="3">
+        <v>333</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G330" s="3">
+        <v>13</v>
+      </c>
+      <c r="H330" s="3">
+        <v>11</v>
+      </c>
+      <c r="I330" s="3">
+        <v>139</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>1771</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>1772</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3">
+        <v>1</v>
+      </c>
+      <c r="O330" s="3">
+        <v>11</v>
+      </c>
+      <c r="P330" s="3" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A331" s="5">
+        <v>334</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G331" s="3">
+        <v>81</v>
+      </c>
+      <c r="H331" s="3">
+        <v>79</v>
+      </c>
+      <c r="I331" s="3">
+        <v>198</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3">
+        <v>1</v>
+      </c>
+      <c r="O331" s="3">
+        <v>79</v>
+      </c>
+      <c r="P331" s="3" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A332" s="5">
+        <v>335</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G332" s="3">
+        <v>12</v>
+      </c>
+      <c r="H332" s="3">
+        <v>13</v>
+      </c>
+      <c r="I332" s="3">
+        <v>12</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>1782</v>
+      </c>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3">
+        <v>1</v>
+      </c>
+      <c r="O332" s="3">
+        <v>126</v>
+      </c>
+      <c r="P332" s="3" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A333" s="3">
+        <v>336</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G333" s="3">
+        <v>120</v>
+      </c>
+      <c r="H333" s="3">
+        <v>57</v>
+      </c>
+      <c r="I333" s="3">
+        <v>210</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3">
+        <v>1</v>
+      </c>
+      <c r="O333" s="3">
+        <v>227</v>
+      </c>
+      <c r="P333" s="3" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A334" s="5">
+        <v>337</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G334" s="3">
+        <v>52</v>
+      </c>
+      <c r="H334" s="3">
+        <v>53</v>
+      </c>
+      <c r="I334" s="3">
+        <v>52</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3">
+        <v>1</v>
+      </c>
+      <c r="O334" s="3">
+        <v>53</v>
+      </c>
+      <c r="P334" s="3" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A335" s="5">
+        <v>338</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G335" s="3">
+        <v>40</v>
+      </c>
+      <c r="H335" s="3">
+        <v>44</v>
+      </c>
+      <c r="I335" s="3">
+        <v>228</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3">
+        <v>1</v>
+      </c>
+      <c r="O335" s="3">
+        <v>229</v>
+      </c>
+      <c r="P335" s="3" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A336" s="3">
+        <v>339</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="G336" s="3">
+        <v>92</v>
+      </c>
+      <c r="H336" s="3">
+        <v>25</v>
+      </c>
+      <c r="I336" s="3">
+        <v>149</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="M336" s="3"/>
+      <c r="N336" s="3">
+        <v>1</v>
+      </c>
+      <c r="O336" s="3">
+        <v>161</v>
+      </c>
+      <c r="P336" s="3" t="s">
+        <v>1799</v>
       </c>
     </row>
   </sheetData>
